--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>470.7985555872403</v>
+        <v>618.461900169369</v>
       </c>
       <c r="R2">
-        <v>470.7985555872403</v>
+        <v>5566.15710152432</v>
       </c>
       <c r="S2">
-        <v>0.003492983823618629</v>
+        <v>0.004224412542772752</v>
       </c>
       <c r="T2">
-        <v>0.003492983823618629</v>
+        <v>0.004224412542772751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>484.7603326412788</v>
+        <v>596.9426950135373</v>
       </c>
       <c r="R3">
-        <v>484.7603326412788</v>
+        <v>5372.484255121836</v>
       </c>
       <c r="S3">
-        <v>0.003596570083219397</v>
+        <v>0.004077425315029377</v>
       </c>
       <c r="T3">
-        <v>0.003596570083219397</v>
+        <v>0.004077425315029377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>266.9417275815788</v>
+        <v>382.157588427288</v>
       </c>
       <c r="R4">
-        <v>266.9417275815788</v>
+        <v>3439.418295845592</v>
       </c>
       <c r="S4">
-        <v>0.001980514012257807</v>
+        <v>0.002610332680842447</v>
       </c>
       <c r="T4">
-        <v>0.001980514012257807</v>
+        <v>0.002610332680842446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>91.88457118845481</v>
+        <v>120.8066408217227</v>
       </c>
       <c r="R5">
-        <v>91.88457118845481</v>
+        <v>1087.259767395504</v>
       </c>
       <c r="S5">
-        <v>0.0006817168765547197</v>
+        <v>0.0008251714270479226</v>
       </c>
       <c r="T5">
-        <v>0.0006817168765547197</v>
+        <v>0.0008251714270479224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>46700.67916172971</v>
+        <v>50743.9117904939</v>
       </c>
       <c r="R6">
-        <v>46700.67916172971</v>
+        <v>456695.2061144452</v>
       </c>
       <c r="S6">
-        <v>0.3464851685036617</v>
+        <v>0.3466069896600132</v>
       </c>
       <c r="T6">
-        <v>0.3464851685036617</v>
+        <v>0.3466069896600132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>48085.6121930449</v>
+        <v>48978.29187448935</v>
       </c>
       <c r="R7">
-        <v>48085.6121930449</v>
+        <v>440804.6268704042</v>
       </c>
       <c r="S7">
-        <v>0.3567603671374915</v>
+        <v>0.3345468984613534</v>
       </c>
       <c r="T7">
-        <v>0.3567603671374915</v>
+        <v>0.3345468984613534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>26479.18058948911</v>
+        <v>31355.48196568217</v>
       </c>
       <c r="R8">
-        <v>26479.18058948911</v>
+        <v>282199.3376911396</v>
       </c>
       <c r="S8">
-        <v>0.1964563152628937</v>
+        <v>0.2141740522160511</v>
       </c>
       <c r="T8">
-        <v>0.1964563152628937</v>
+        <v>0.2141740522160511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>9114.454214144236</v>
+        <v>9912.011595030493</v>
       </c>
       <c r="R9">
-        <v>9114.454214144236</v>
+        <v>89208.10435527444</v>
       </c>
       <c r="S9">
-        <v>0.06762263977511088</v>
+        <v>0.06770413196785249</v>
       </c>
       <c r="T9">
-        <v>0.06762263977511088</v>
+        <v>0.06770413196785248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>380.662140041841</v>
+        <v>542.3786257951912</v>
       </c>
       <c r="R10">
-        <v>380.662140041841</v>
+        <v>4881.407632156721</v>
       </c>
       <c r="S10">
-        <v>0.002824236994040252</v>
+        <v>0.003704724687347093</v>
       </c>
       <c r="T10">
-        <v>0.002824236994040252</v>
+        <v>0.003704724687347092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>391.9508746165428</v>
+        <v>523.5067164384008</v>
       </c>
       <c r="R11">
-        <v>391.9508746165428</v>
+        <v>4711.560447945606</v>
       </c>
       <c r="S11">
-        <v>0.002907991217137589</v>
+        <v>0.003575819850087006</v>
       </c>
       <c r="T11">
-        <v>0.002907991217137589</v>
+        <v>0.003575819850087006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>215.8345816522805</v>
+        <v>335.144505411948</v>
       </c>
       <c r="R12">
-        <v>215.8345816522805</v>
+        <v>3016.300548707532</v>
       </c>
       <c r="S12">
-        <v>0.001601336056242867</v>
+        <v>0.002289209168609873</v>
       </c>
       <c r="T12">
-        <v>0.001601336056242867</v>
+        <v>0.002289209168609873</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N13">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q13">
-        <v>74.29287343882423</v>
+        <v>105.9449900113094</v>
       </c>
       <c r="R13">
-        <v>74.29287343882423</v>
+        <v>953.5049101017842</v>
       </c>
       <c r="S13">
-        <v>0.000551199238086601</v>
+        <v>0.0007236587161232467</v>
       </c>
       <c r="T13">
-        <v>0.000551199238086601</v>
+        <v>0.0007236587161232467</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N14">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q14">
-        <v>726.053873620961</v>
+        <v>787.0668345123111</v>
       </c>
       <c r="R14">
-        <v>726.053873620961</v>
+        <v>7083.601510610799</v>
       </c>
       <c r="S14">
-        <v>0.005386793152902349</v>
+        <v>0.005376070873248155</v>
       </c>
       <c r="T14">
-        <v>0.005386793152902349</v>
+        <v>0.005376070873248154</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N15">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q15">
-        <v>747.5853804457275</v>
+        <v>759.6810688271767</v>
       </c>
       <c r="R15">
-        <v>747.5853804457275</v>
+        <v>6837.129619444589</v>
       </c>
       <c r="S15">
-        <v>0.005546541317259465</v>
+        <v>0.005189012022861355</v>
       </c>
       <c r="T15">
-        <v>0.005546541317259465</v>
+        <v>0.005189012022861354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N16">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q16">
-        <v>411.6709217595769</v>
+        <v>486.3412981882199</v>
       </c>
       <c r="R16">
-        <v>411.6709217595769</v>
+        <v>4377.071683693979</v>
       </c>
       <c r="S16">
-        <v>0.003054299664464273</v>
+        <v>0.00332196094791298</v>
       </c>
       <c r="T16">
-        <v>0.003054299664464273</v>
+        <v>0.003321960947912979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N17">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q17">
-        <v>141.7021102670236</v>
+        <v>153.7409181609733</v>
       </c>
       <c r="R17">
-        <v>141.7021102670236</v>
+        <v>1383.66826344876</v>
       </c>
       <c r="S17">
-        <v>0.001051326885057995</v>
+        <v>0.00105012946284768</v>
       </c>
       <c r="T17">
-        <v>0.001051326885057995</v>
+        <v>0.00105012946284768</v>
       </c>
     </row>
   </sheetData>
